--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1975408.269935605</v>
+        <v>2090368.125209949</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797163</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5318500.888335292</v>
+        <v>5721977.27444599</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>245.6749552534301</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>101.7001398430661</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>93.33789293904161</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>65.07405371603522</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,10 +876,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -899,10 +901,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>173.5276703207737</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>30.55202854087245</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1057,10 +1059,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>32.98066327132578</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>131.996999652747</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>234.3277699012939</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>32.36127543482676</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1294,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1348,16 +1350,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>139.9514671241872</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805517129</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,13 +1378,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>278.4279304261574</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>272.1494839753878</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1534,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170487</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1607,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>22.28782598961332</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>217.4958257956226</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>104.6990987647578</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>162.0469045419238</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199255</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2008,13 +2010,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.060423711766</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226156</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2245,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
-        <v>43.70143389869422</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>225.1013595417842</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>22.28534392847676</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2950,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978563</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226246</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>232.0689372763651</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244256</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226246</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>221.1091630478547</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>186.7535668023728</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3557,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3667,19 +3669,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>32.69681262526345</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>19.66484339937177</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>223.3440678940267</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170481</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>193.8659438253731</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>63.02341241304863</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>299.4689871993638</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>61.4375536224679</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>218.5979472436796</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>866.5213804116894</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C2" t="n">
-        <v>428.3789075951127</v>
+        <v>759.5762967515918</v>
       </c>
       <c r="D2" t="n">
-        <v>396.5095268099613</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7751860086605</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4340,7 +4342,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2483.68153863237</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2483.68153863237</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2121.064588566196</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1716.209133977229</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1297.06667055654</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>888.7805468561932</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4419,7 +4421,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
         <v>714.2412710704069</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1028.432740781182</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>855.8710292644067</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>689.9930364659294</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
         <v>624.2616690759949</v>
@@ -4486,13 +4488,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1965.089189266357</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1693.062784852648</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="X4" t="n">
-        <v>1447.671030186061</v>
+        <v>1454.159747764828</v>
       </c>
       <c r="Y4" t="n">
-        <v>1220.251359500169</v>
+        <v>1226.740077078936</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>576.9744364820456</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C5" t="n">
-        <v>138.8319636654689</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D5" t="n">
-        <v>106.9625828803175</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4580,10 +4582,10 @@
         <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678371</v>
@@ -4598,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2235.558048676956</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1830.702594087989</v>
+        <v>2639.200191541658</v>
       </c>
       <c r="X5" t="n">
-        <v>1411.5601306673</v>
+        <v>2220.057728120968</v>
       </c>
       <c r="Y5" t="n">
-        <v>1003.274006966953</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>568.9155211348376</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>568.9155211348376</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>392.2084670965938</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>226.6171921224215</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>86.71501781279602</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4753,22 +4755,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1819.558022317326</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>1785.455953541153</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>1349.546168715597</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>915.7714238738924</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>487.9039942831002</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>86.50616290636407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>2250.103312462176</v>
+        <v>2030.036085335214</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.857592802233</v>
+        <v>2025.790365675272</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4996,16 +4998,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1823.724070959097</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1551.697666545389</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1211.418991062705</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>773.2765182461285</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>337.366733420573</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
-        <v>56.12639965677763</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677763</v>
+        <v>368.6685679808615</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M11" t="n">
-        <v>56.12639965677763</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N11" t="n">
-        <v>750.6905954094008</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183741</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763052</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1211.418991062705</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="O12" t="n">
-        <v>366.890248656548</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>593.0585255576149</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1805327591376</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4225290098748</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="F13" t="n">
-        <v>80.71547497163104</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677763</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>928.0436173150591</v>
+        <v>2104.36300005549</v>
       </c>
       <c r="C14" t="n">
-        <v>489.9011444984824</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>489.9011444984824</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677763</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677763</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12639965677763</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="M14" t="n">
-        <v>56.12639965677763</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5387406219836</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2586.62722950997</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>2181.771774921003</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>1762.629311500314</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1354.343187799967</v>
+        <v>2530.662570540398</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N15" t="n">
-        <v>56.12639965677763</v>
+        <v>279.374977592049</v>
       </c>
       <c r="O15" t="n">
-        <v>750.6905954094008</v>
+        <v>279.374977592049</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.9628995265592</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C16" t="n">
-        <v>873.9628995265592</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D16" t="n">
-        <v>708.0849067280819</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E16" t="n">
-        <v>538.3269029788192</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F16" t="n">
-        <v>361.6198489405755</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G16" t="n">
-        <v>196.0285739664031</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2604.673043802706</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2358.793597381161</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2080.360596634267</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1793.405088504697</v>
       </c>
       <c r="W16" t="n">
-        <v>1538.592943598026</v>
+        <v>1521.378684090989</v>
       </c>
       <c r="X16" t="n">
-        <v>1293.201188931438</v>
+        <v>1275.986929424397</v>
       </c>
       <c r="Y16" t="n">
-        <v>1065.781518245546</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5516,13 +5518,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>356.7918199602176</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5604,16 +5606,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477067</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309316</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324543</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130891</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.801834709346</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962451</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832882</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419173</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.995166752586</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066694</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>475.2748675296854</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5832,16 +5834,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
         <v>287.8657185439749</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>451.897152078511</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>451.897152078511</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>286.3058771043387</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
-        <v>146.4037027947132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>1303.584742363082</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2460.632577573633</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6072,16 +6074,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N24" t="n">
-        <v>1300.985674363279</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O24" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>4885.666902890714</v>
       </c>
       <c r="U25" t="n">
-        <v>2313.799635050031</v>
+        <v>4607.23390214382</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>4320.278394014251</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>4048.251989600542</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>3802.860234933955</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>3575.440564248063</v>
       </c>
     </row>
     <row r="26">
@@ -6236,16 +6238,16 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="O26" t="n">
+        <v>4284.732138705585</v>
+      </c>
+      <c r="P26" t="n">
         <v>5113.042013538981</v>
       </c>
-      <c r="P26" t="n">
-        <v>5113.04201353898</v>
-      </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805145</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312517</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930079</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>842.8792965674086</v>
+        <v>952.7568773477058</v>
       </c>
       <c r="C31" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309307</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324534</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831907</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.68128113089</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.801834709345</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.36883396245</v>
       </c>
       <c r="V31" t="n">
-        <v>1779.535745052583</v>
+        <v>1889.413325832881</v>
       </c>
       <c r="W31" t="n">
-        <v>1507.509340638875</v>
+        <v>1617.386921419172</v>
       </c>
       <c r="X31" t="n">
-        <v>1262.117585972288</v>
+        <v>1371.995166752585</v>
       </c>
       <c r="Y31" t="n">
-        <v>1034.697915286396</v>
+        <v>1144.575496066693</v>
       </c>
     </row>
     <row r="32">
@@ -6713,10 +6715,10 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>839.0206718702449</v>
+        <v>952.7568773477058</v>
       </c>
       <c r="C34" t="n">
-        <v>666.4589603534698</v>
+        <v>780.1951658309307</v>
       </c>
       <c r="D34" t="n">
-        <v>500.5809675549925</v>
+        <v>614.3171730324534</v>
       </c>
       <c r="E34" t="n">
-        <v>330.8229638057298</v>
+        <v>444.5591692831906</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>267.8521152449468</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.68128113089</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.801834709345</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.36883396245</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832881</v>
       </c>
       <c r="W34" t="n">
-        <v>1503.650715941711</v>
+        <v>1617.386921419172</v>
       </c>
       <c r="X34" t="n">
-        <v>1258.258961275124</v>
+        <v>1371.995166752585</v>
       </c>
       <c r="Y34" t="n">
-        <v>1030.839290589232</v>
+        <v>1144.575496066693</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -7023,19 +7025,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,31 +7180,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7266,13 +7268,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8700686186489</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>242.1630145804051</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1147.736370643971</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C41" t="n">
-        <v>709.5938978273948</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D41" t="n">
-        <v>709.5938978273948</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>709.5938978273948</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>281.7264682366026</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677763</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5387406219836</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M41" t="n">
-        <v>1396.102936374607</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N41" t="n">
-        <v>1396.102936374607</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>2401.464528249915</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>1982.322064829226</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>1574.035941128879</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L42" t="n">
-        <v>750.6905954094008</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M42" t="n">
-        <v>750.6905954094008</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N42" t="n">
-        <v>750.6905954094008</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="O42" t="n">
-        <v>750.6905954094008</v>
+        <v>279.374977592049</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1135.184560268659</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>962.6228487518839</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2071.841008753834</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.841008753834</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.814604340125</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.422849673538</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.003178987646</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1791.820831731407</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.67835891483</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>917.7685740892747</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>483.9938292475699</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677763</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677763</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5387406219836</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5387406219836</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="U44" t="n">
-        <v>2502.600881895757</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>2200.106955431753</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>2200.106955431753</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>2200.106955431753</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>1791.820831731407</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="O45" t="n">
-        <v>750.6905954094008</v>
+        <v>279.374977592049</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>936.021034498749</v>
+        <v>1007.236984956563</v>
       </c>
       <c r="C46" t="n">
-        <v>873.9628995265592</v>
+        <v>834.6752734397877</v>
       </c>
       <c r="D46" t="n">
-        <v>708.0849067280819</v>
+        <v>668.7972806413104</v>
       </c>
       <c r="E46" t="n">
-        <v>538.3269029788192</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="F46" t="n">
-        <v>361.6198489405755</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G46" t="n">
-        <v>196.0285739664031</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1943.893433441738</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1671.867029028029</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1426.475274361442</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1199.05560367555</v>
       </c>
     </row>
   </sheetData>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O2" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>667.5152066078568</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8228,13 +8230,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078568</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>954.405546537402</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>313.9028777775458</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8930,19 +8932,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>954.405546537402</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>313.9028777775458</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>370.6804142768938</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9653,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,19 +9722,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9884,13 +9886,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1127.286065669917</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,10 +10126,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10671,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>350.8506558504741</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>651.931657540612</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11142,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P42" t="n">
-        <v>313.9028777775458</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>651.931657540612</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>922.7723629271961</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11388,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>701.5799957097204</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P45" t="n">
-        <v>313.9028777775458</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>151.0090669671304</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>125.2343690875809</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>48.19697732171628</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>411.4732220987976</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>141.4949547698891</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>52.94985625022554</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>107.2592358276476</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627218</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
-        <v>44.07191583437719</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.31929241554511</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>141.6500182959539</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.446659489829642</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627208</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>52.01701577190875</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627208</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>48.19697732171667</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.146865729424462</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>174.0397851689421</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>81.78272691405257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>154.8431424426431</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>59.52179336614796</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>109.3985407791394</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>65.48800580459425</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331278.5277037971</v>
+        <v>469367.8974391217</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>331278.5277037971</v>
+        <v>469367.8974391216</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304846</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304849</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304849</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331278.5277037971</v>
+        <v>469367.8974391217</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>331278.5277037971</v>
+        <v>469367.8974391218</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26322,13 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>278971.391750566</v>
+        <v>395257.1767908393</v>
       </c>
       <c r="F2" t="n">
-        <v>278971.391750566</v>
+        <v>395257.1767908394</v>
       </c>
       <c r="G2" t="n">
-        <v>421486.0673098817</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
         <v>421486.0673098819</v>
@@ -26341,7 +26343,7 @@
         <v>421486.0673098819</v>
       </c>
       <c r="L2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="M2" t="n">
         <v>421486.0673098819</v>
@@ -26350,10 +26352,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>278971.391750566</v>
+        <v>395257.1767908393</v>
       </c>
       <c r="P2" t="n">
-        <v>278971.391750566</v>
+        <v>395257.1767908394</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085234</v>
       </c>
       <c r="F4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847084545</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907825429</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
@@ -26442,22 +26444,22 @@
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.332390782671</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.332390782671</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="P4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085233</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26528,13 +26530,13 @@
         <v>241200.9251323185</v>
       </c>
       <c r="E6" t="n">
-        <v>225610.6395840715</v>
+        <v>172569.9930520541</v>
       </c>
       <c r="F6" t="n">
-        <v>235781.6361845277</v>
+        <v>323235.7466238022</v>
       </c>
       <c r="G6" t="n">
-        <v>184902.0193671974</v>
+        <v>313871.6871406989</v>
       </c>
       <c r="H6" t="n">
         <v>342961.4963133068</v>
@@ -26543,25 +26545,25 @@
         <v>342961.4963133068</v>
       </c>
       <c r="J6" t="n">
-        <v>168310.1475956006</v>
+        <v>168310.1475956007</v>
       </c>
       <c r="K6" t="n">
         <v>342961.4963133067</v>
       </c>
       <c r="L6" t="n">
-        <v>342961.4963133067</v>
+        <v>342961.4963133068</v>
       </c>
       <c r="M6" t="n">
-        <v>334472.4146099659</v>
+        <v>217210.4079776161</v>
       </c>
       <c r="N6" t="n">
-        <v>342961.4963133067</v>
+        <v>342961.4963133068</v>
       </c>
       <c r="O6" t="n">
-        <v>235781.6361845276</v>
+        <v>323235.746623802</v>
       </c>
       <c r="P6" t="n">
-        <v>235781.6361845277</v>
+        <v>323235.7466238021</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>185.8757317238698</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>116.1664150126256</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>96.56253959275563</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>185.463110244738</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>370.2548715022045</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>54.79268646174563</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.7088048787647</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>253.8775775763891</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.8531101735157</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28728,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O2" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>667.5152066078568</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34948,13 +34950,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078568</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35416,22 +35418,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>954.405546537402</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>313.9028777775458</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>954.405546537402</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>651.931657540612</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>313.9028777775458</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35972,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>376.7818457160665</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>370.6804142768938</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,13 +36606,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1127.286065669917</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,13 +36843,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>350.8506558504741</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P39" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>651.931657540612</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P42" t="n">
-        <v>313.9028777775458</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>651.931657540612</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>922.7723629271961</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>701.5799957097204</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P45" t="n">
-        <v>313.9028777775458</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2090368.125209949</v>
+        <v>2089762.037581053</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797163</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5721977.27444599</v>
+        <v>5721977.274445991</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>245.6749552534301</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>146.5350439027424</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.33789293904161</v>
+        <v>115.7469331998928</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>278.8311082753237</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>30.55202854087245</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>131.996999652747</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.3277699012939</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.292363805517129</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>305.9036964105895</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>272.1494839753878</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>31.2439167388814</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>119.8634463900538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>22.28782598961332</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>233.7564114779326</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,10 +1666,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>104.6990987647578</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,16 +1824,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>275.29676318859</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199255</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830777</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482701</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>225.1013595417842</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>136.0564930766996</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2769,10 +2769,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>35.5167825707945</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978563</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735226246</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244256</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735226246</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3559,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>92.96608628013384</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>19.66484339937177</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170481</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>63.02341241304863</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>403.8720952516329</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>218.5979472436796</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793.6783655277644</v>
+        <v>1267.502422415565</v>
       </c>
       <c r="C2" t="n">
-        <v>759.5762967515918</v>
+        <v>829.3599495989887</v>
       </c>
       <c r="D2" t="n">
-        <v>511.4197762935816</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4339,13 +4339,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2522.045630570072</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2522.045630570072</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682271</v>
+        <v>2522.045630570072</v>
       </c>
       <c r="W2" t="n">
-        <v>1643.366119093304</v>
+        <v>2521.230580021509</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.223655672615</v>
+        <v>2102.08811660082</v>
       </c>
       <c r="Y2" t="n">
-        <v>815.9375319722682</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="3">
@@ -4424,10 +4424,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431415</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1699.551502431415</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1454.159747764828</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1226.740077078936</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1385.472033935714</v>
+        <v>1518.10729979241</v>
       </c>
       <c r="C5" t="n">
-        <v>947.3295611191371</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D5" t="n">
-        <v>511.4197762935816</v>
+        <v>800.5499308503654</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187676</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
         <v>53.81800590148855</v>
@@ -4573,13 +4573,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>2639.200191541658</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X5" t="n">
-        <v>2220.057728120968</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y5" t="n">
-        <v>1811.771604420622</v>
+        <v>1540.366466236913</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4749,13 +4749,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2356.071333755254</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
         <v>2356.071333755254</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4813,13 +4813,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4837,19 +4837,19 @@
         <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304466</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2449.178548755904</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.036085335214</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>2025.790365675272</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.5813843420327</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.40000306102</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055491</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238914</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.310742413359</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>796.5359975716538</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>368.6685679808615</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.631590390881</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.571709137155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>322.3322228538038</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>322.3322228538038</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.36300005549</v>
+        <v>2466.979950121666</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.850044510426</v>
+        <v>2028.83747730509</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.940259684871</v>
+        <v>1592.927692479534</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.165514843166</v>
+        <v>1159.152947637829</v>
       </c>
       <c r="F14" t="n">
-        <v>784.2980852523735</v>
+        <v>731.2855180470369</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>329.8876866703008</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>1038.631590390881</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.631590390881</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4185.038459369553</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3720.70810772761</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3301.565644306921</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540398</v>
+        <v>2893.279520606574</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,28 +5351,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>279.374977592049</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>279.374977592049</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5381,16 +5381,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5415,25 +5415,25 @@
         <v>1084.16831070541</v>
       </c>
       <c r="C16" t="n">
-        <v>911.6065991886352</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D16" t="n">
-        <v>745.7286063901579</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E16" t="n">
-        <v>575.9706026408952</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F16" t="n">
-        <v>399.2635486026514</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G16" t="n">
-        <v>233.6722736284791</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5463,25 +5463,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2604.673043802706</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2358.793597381161</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2080.360596634267</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1793.405088504697</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="W16" t="n">
-        <v>1521.378684090989</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X16" t="n">
-        <v>1275.986929424397</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y16" t="n">
-        <v>1275.986929424397</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5518,13 +5518,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>356.7918199602176</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.851786213077</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5591,22 +5591,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.363958244297</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.363958244297</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497402</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5758,22 +5758,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5828,22 +5828,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N21" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O21" t="n">
         <v>287.8657185439749</v>
@@ -5992,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1303.584742363082</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2460.632577573633</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>4885.666902890714</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4607.23390214382</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>4320.278394014251</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>4048.251989600542</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>3802.860234933955</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>3575.440564248063</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4284.732138705585</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.187678435286</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>917.6259669185112</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>751.7479741200339</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>581.9899703707711</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>405.2829163325273</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>239.691641358355</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2026.844126920461</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1754.817722506753</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1509.425967840165</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.006297154273</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477058</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309307</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324534</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831907</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.68128113089</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.801834709345</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.36883396245</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832881</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419172</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.995166752585</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066693</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477058</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309307</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324534</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831906</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449468</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.68128113089</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709345</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.36883396245</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832881</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419172</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.995166752585</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066693</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6943,22 +6943,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P35" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>405.0384966383147</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>405.0384966383147</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
         <v>614.3171730324584</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7180,31 +7180,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7371,13 +7371,13 @@
         <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055491</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238914</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
         <v>1646.357049057731</v>
@@ -7405,58 +7405,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1203912770317</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L41" t="n">
-        <v>2003.180357529891</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M41" t="n">
-        <v>2003.180357529891</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.362573827329</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999558</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250401</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661434</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240745</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.662570540399</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,28 +7484,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>279.374977592049</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
         <v>1099.098144071247</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2639367364659</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>630.7022252196908</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>464.8242324212135</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>295.0662286719508</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>118.359174633707</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2551.18834051965</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2305.308894098105</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2026.87589335121</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1739.920385221641</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1467.893980807932</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1222.502226141345</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>995.0825554554531</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M44" t="n">
         <v>1250.817934529405</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397635</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231031</v>
+        <v>4185.038459369553</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4541.193079588086</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4541.193079588086</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>3773.720674932946</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.578211512257</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.29208781191</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,28 +7721,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>279.374977592049</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1007.236984956563</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>834.6752734397877</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>668.7972806413104</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E46" t="n">
-        <v>499.0392768920476</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F46" t="n">
-        <v>322.3322228538038</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.011887927025</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2443.132441505481</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2164.699440758586</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>1943.893433441738</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1671.867029028029</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1426.475274361442</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>1199.05560367555</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P3" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q3" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8221,16 +8221,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8698,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>954.405546537402</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>775.7508307391772</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>954.405546537402</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>257.101999686301</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>370.6804142768938</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1127.286065669917</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10363,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10603,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10688,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>162.8103194923613</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>946.6135224089312</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11308,7 +11308,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>922.7723629271961</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11317,10 +11317,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>125.6469905667104</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>125.2343690875809</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>48.19697732171628</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>411.4732220987976</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>52.48244153328326</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>52.94985625022554</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>8.789189859683802</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>143.6516710866755</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>18.31929241554511</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.446659489829642</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>248.5691704774793</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627208</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627208</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>329.0704884999249</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>411.8858435779281</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>154.8431424426431</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>11.07894353484949</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>65.48800580459425</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469367.8974391217</v>
+        <v>469367.8974391219</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469367.8974391216</v>
+        <v>469367.8974391218</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304846</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469367.8974391217</v>
+        <v>469367.8974391219</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469367.8974391218</v>
+        <v>469367.8974391219</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>395257.1767908393</v>
+        <v>395257.1767908396</v>
       </c>
       <c r="F2" t="n">
-        <v>395257.1767908394</v>
+        <v>395257.1767908395</v>
       </c>
       <c r="G2" t="n">
         <v>421486.0673098819</v>
@@ -26334,16 +26334,16 @@
         <v>421486.0673098819</v>
       </c>
       <c r="I2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="J2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="K2" t="n">
+        <v>421486.0673098818</v>
+      </c>
+      <c r="L2" t="n">
         <v>421486.0673098819</v>
-      </c>
-      <c r="L2" t="n">
-        <v>421486.067309882</v>
       </c>
       <c r="M2" t="n">
         <v>421486.0673098819</v>
@@ -26352,10 +26352,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>395257.1767908393</v>
+        <v>395257.1767908395</v>
       </c>
       <c r="P2" t="n">
-        <v>395257.1767908394</v>
+        <v>395257.1767908395</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>756.1546847085234</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="F4" t="n">
-        <v>756.1546847084545</v>
+        <v>756.1546847085237</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907825429</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
@@ -26444,22 +26444,22 @@
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.332390782671</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.332390782671</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>756.1546847085235</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="P4" t="n">
-        <v>756.1546847085233</v>
+        <v>756.1546847085236</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17501.22654827364</v>
+        <v>17501.22654827367</v>
       </c>
       <c r="C6" t="n">
         <v>241200.9251323185</v>
@@ -26530,40 +26530,40 @@
         <v>241200.9251323185</v>
       </c>
       <c r="E6" t="n">
-        <v>172569.9930520541</v>
+        <v>172464.8034297997</v>
       </c>
       <c r="F6" t="n">
-        <v>323235.7466238022</v>
+        <v>323130.5570015476</v>
       </c>
       <c r="G6" t="n">
-        <v>313871.6871406989</v>
+        <v>313848.4628013163</v>
       </c>
       <c r="H6" t="n">
-        <v>342961.4963133068</v>
+        <v>342938.2719739241</v>
       </c>
       <c r="I6" t="n">
-        <v>342961.4963133068</v>
+        <v>342938.271973924</v>
       </c>
       <c r="J6" t="n">
-        <v>168310.1475956007</v>
+        <v>168286.923256218</v>
       </c>
       <c r="K6" t="n">
-        <v>342961.4963133067</v>
+        <v>342938.271973924</v>
       </c>
       <c r="L6" t="n">
-        <v>342961.4963133068</v>
+        <v>342938.2719739241</v>
       </c>
       <c r="M6" t="n">
-        <v>217210.4079776161</v>
+        <v>217187.1836382333</v>
       </c>
       <c r="N6" t="n">
-        <v>342961.4963133068</v>
+        <v>342938.2719739241</v>
       </c>
       <c r="O6" t="n">
-        <v>323235.746623802</v>
+        <v>323130.5570015476</v>
       </c>
       <c r="P6" t="n">
-        <v>323235.7466238021</v>
+        <v>323130.5570015476</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>185.8757317238698</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>71.33151095294932</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.56253959275563</v>
+        <v>74.15349933190446</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>154.9299398130872</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>370.2548715022045</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>111.4236523045822</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.7088048787647</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8531101735157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28781,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P3" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q3" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34941,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35418,13 +35418,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>954.405546537402</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>775.7508307391772</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35652,13 +35652,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>954.405546537402</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35886,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>257.101999686301</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36360,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>370.6804142768938</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1127.286065669917</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37071,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37323,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37408,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>162.8103194923613</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>946.6135224089312</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38028,7 +38028,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>922.7723629271961</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38037,10 +38037,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
